--- a/resources/excelData.xlsx
+++ b/resources/excelData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johan.elfeld/Desktop/Repo/rechnungMARSters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johan.elfeld/Desktop/Repo/Final/rechnungMARSters/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BEB8A0-E48D-F14F-9458-8452A51448C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4517689-0CDC-DA4C-AAFA-46047339667A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2000" yWindow="1420" windowWidth="34200" windowHeight="21100" xr2:uid="{D3EC4FF9-2BB6-2944-B9C2-FA9566BC8D6A}"/>
+    <workbookView xWindow="2000" yWindow="500" windowWidth="34200" windowHeight="21100" xr2:uid="{D3EC4FF9-2BB6-2944-B9C2-FA9566BC8D6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
   <si>
     <t>1. Quantitativer Vergleich</t>
   </si>
@@ -158,21 +158,9 @@
     <t>Pos</t>
   </si>
   <si>
-    <t>Leistung</t>
-  </si>
-  <si>
     <t>MwSt</t>
   </si>
   <si>
-    <t>Einzelpreis</t>
-  </si>
-  <si>
-    <t>Anzahl</t>
-  </si>
-  <si>
-    <t>Gesamtpreis</t>
-  </si>
-  <si>
     <t>Router (ISR4331)</t>
   </si>
   <si>
@@ -200,12 +188,6 @@
     <t>TV</t>
   </si>
   <si>
-    <t>Drucker</t>
-  </si>
-  <si>
-    <t>Nettobetrag:</t>
-  </si>
-  <si>
     <t>Gewinn in Prozent</t>
   </si>
   <si>
@@ -224,30 +206,9 @@
     <t>Kundenaddresse</t>
   </si>
   <si>
-    <t>Stunden</t>
-  </si>
-  <si>
-    <t>Satz/h (€)</t>
-  </si>
-  <si>
-    <t>Gesamt (€)</t>
-  </si>
-  <si>
-    <t>Netzwerktechnik-Spezialist</t>
-  </si>
-  <si>
-    <t>Hardwareinstallation (Roboterteam)</t>
-  </si>
-  <si>
-    <t>Spezialsoftwareentwicklung</t>
-  </si>
-  <si>
     <t>Summe netto</t>
   </si>
   <si>
-    <t>Projektleitung und Planung</t>
-  </si>
-  <si>
     <t>Kundendaten</t>
   </si>
   <si>
@@ -264,6 +225,42 @@
   </si>
   <si>
     <t>20537 Hamburg</t>
+  </si>
+  <si>
+    <t>Unit price</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Total price</t>
+  </si>
+  <si>
+    <t>Printer</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Rate/hr (€)</t>
+  </si>
+  <si>
+    <t>Total (€)</t>
+  </si>
+  <si>
+    <t>Net amount</t>
+  </si>
+  <si>
+    <t>Network Technology Specialist</t>
+  </si>
+  <si>
+    <t>Project Management and Planning</t>
+  </si>
+  <si>
+    <t>Hardware Installation (Robot Team)</t>
+  </si>
+  <si>
+    <t>Special Software Development</t>
   </si>
 </sst>
 </file>
@@ -1035,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4358DD47-7E6D-DD40-92A6-39C8C7C2E111}">
   <dimension ref="A4:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="143" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="143" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1057,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="22" x14ac:dyDescent="0.3">
@@ -1076,10 +1073,10 @@
       </c>
       <c r="F6" s="49"/>
       <c r="H6" s="42" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I6" s="42" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1096,10 +1093,10 @@
         <v>5</v>
       </c>
       <c r="H7" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="42" t="s">
         <v>60</v>
-      </c>
-      <c r="I7" s="42" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1117,10 +1114,10 @@
         <v>95059.812000000005</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I8" s="42" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1460,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -1476,7 +1473,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="29" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B45" s="32">
         <f>B44 * 0.2</f>
@@ -1542,11 +1539,11 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="29" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B51" s="33">
         <f>(B49/((100-B50)/100))+D79</f>
-        <v>491479.35241945332</v>
+        <v>490969.35241945332</v>
       </c>
       <c r="C51" s="31"/>
     </row>
@@ -1565,13 +1562,13 @@
       </c>
       <c r="B53" s="33">
         <f>B51*(1+(B52/100))</f>
-        <v>584860.42937914946</v>
+        <v>584253.52937914943</v>
       </c>
       <c r="C53" s="31"/>
     </row>
     <row r="59" spans="1:6" ht="22" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -1579,19 +1576,19 @@
         <v>39</v>
       </c>
       <c r="B60" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C60" s="36" t="s">
-        <v>41</v>
-      </c>
       <c r="D60" s="36" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="E60" s="36" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="F60" s="36" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -1599,7 +1596,7 @@
         <v>1</v>
       </c>
       <c r="B61" s="37" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C61" s="38">
         <v>0.19</v>
@@ -1620,7 +1617,7 @@
         <v>2</v>
       </c>
       <c r="B62" s="37" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C62" s="38">
         <v>0.19</v>
@@ -1641,7 +1638,7 @@
         <v>3</v>
       </c>
       <c r="B63" s="37" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C63" s="38">
         <v>0.19</v>
@@ -1662,7 +1659,7 @@
         <v>4</v>
       </c>
       <c r="B64" s="37" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C64" s="38">
         <v>0.19</v>
@@ -1683,7 +1680,7 @@
         <v>5</v>
       </c>
       <c r="B65" s="37" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C65" s="38">
         <v>0.19</v>
@@ -1704,7 +1701,7 @@
         <v>6</v>
       </c>
       <c r="B66" s="37" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C66" s="38">
         <v>0.19</v>
@@ -1725,7 +1722,7 @@
         <v>7</v>
       </c>
       <c r="B67" s="37" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C67" s="38">
         <v>0.19</v>
@@ -1746,7 +1743,7 @@
         <v>8</v>
       </c>
       <c r="B68" s="37" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C68" s="38">
         <v>0.19</v>
@@ -1767,7 +1764,7 @@
         <v>9</v>
       </c>
       <c r="B69" s="37" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C69" s="38">
         <v>0.19</v>
@@ -1788,7 +1785,7 @@
         <v>10</v>
       </c>
       <c r="B70" s="37" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C70" s="38">
         <v>0.19</v>
@@ -1806,7 +1803,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G72" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="H72" s="40">
         <f>F61+F62+F63+F64+F65+F66+F67+F68+F69+F70</f>
@@ -1815,27 +1812,27 @@
     </row>
     <row r="73" spans="1:8" ht="22" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H73" s="41"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="43" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B74" s="43" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D74" s="43" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B75" s="44">
         <v>75</v>
@@ -1850,7 +1847,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B76" s="44">
         <v>85</v>
@@ -1865,22 +1862,22 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B77" s="44">
-        <v>118.85</v>
+        <v>118</v>
       </c>
       <c r="C77" s="44">
         <v>600</v>
       </c>
       <c r="D77" s="45">
         <f>B77*C77</f>
-        <v>71310</v>
+        <v>70800</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B78" s="44">
         <v>122</v>
@@ -1895,13 +1892,13 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="46" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B79" s="44"/>
       <c r="C79" s="44"/>
       <c r="D79" s="47">
         <f>D75+D76+D77+D78</f>
-        <v>359810</v>
+        <v>359300</v>
       </c>
     </row>
   </sheetData>
